--- a/OEM_db_AzureDB/Data.xlsx
+++ b/OEM_db_AzureDB/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\iCloud\02PROJECTS_ICLOUD\1_Github_projects\OEMMatInsightBI\OEM_db_AzureDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C7D807-1983-4335-A70C-85F02BD55C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF22445-ED87-4656-BB73-F5685403C517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="14370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2532,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2572,7 +2572,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2589,7 +2589,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2606,7 +2606,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2623,7 +2623,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2638,7 +2638,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2653,7 +2653,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2668,7 +2668,7 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2683,7 +2683,7 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2698,7 +2698,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2713,7 +2713,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2728,7 +2728,7 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2743,7 +2743,7 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2758,7 +2758,7 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2773,7 +2773,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2788,7 +2788,7 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2805,7 +2805,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
